--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>日期</t>
   </si>
@@ -22,13 +22,40 @@
     <t>用户数</t>
   </si>
   <si>
+    <t>职业</t>
+  </si>
+  <si>
     <t>1号</t>
   </si>
   <si>
+    <t>老师</t>
+  </si>
+  <si>
     <t>2号</t>
   </si>
   <si>
+    <t>学生</t>
+  </si>
+  <si>
     <t>3号</t>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <t>7号</t>
+  </si>
+  <si>
+    <t>8号</t>
+  </si>
+  <si>
+    <t>9号</t>
   </si>
 </sst>
 </file>
@@ -677,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +712,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1007,49 +1037,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>20</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
-        <v>30</v>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>-25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B2">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:B4">
+    <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
